--- a/data/trans_orig/P39B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>51117</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38650</v>
+        <v>38755</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67157</v>
+        <v>67167</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09058920730621337</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06849632300654936</v>
+        <v>0.06868156393603846</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1190152095093297</v>
+        <v>0.119033558086889</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -764,19 +764,19 @@
         <v>33218</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22662</v>
+        <v>23157</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46519</v>
+        <v>47233</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05771533846278076</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03937444889996981</v>
+        <v>0.04023444249934925</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08082728285986236</v>
+        <v>0.08206664025852702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -785,19 +785,19 @@
         <v>84334</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66544</v>
+        <v>67309</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101970</v>
+        <v>103780</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0739897371363364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05838152286705542</v>
+        <v>0.05905288572132542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08946191597370629</v>
+        <v>0.09105024646522912</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>116667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97391</v>
+        <v>97961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>138981</v>
+        <v>138884</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2067570312118676</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1725960290733494</v>
+        <v>0.1736064513065231</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2463022581930685</v>
+        <v>0.2461297691897901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -835,19 +835,19 @@
         <v>104815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86164</v>
+        <v>87953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123976</v>
+        <v>126067</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1821164307781334</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1497103151930394</v>
+        <v>0.1528180905282757</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.215408600795812</v>
+        <v>0.2190412879164181</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>213</v>
@@ -856,19 +856,19 @@
         <v>221482</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>195827</v>
+        <v>194413</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>248724</v>
+        <v>250255</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1943149023643121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1718068990209148</v>
+        <v>0.170565878889357</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2182147062103467</v>
+        <v>0.2195580548472231</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>181154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160311</v>
+        <v>158009</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>204782</v>
+        <v>204922</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3210411381941507</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.284102874760919</v>
+        <v>0.2800230270313169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3629154362680732</v>
+        <v>0.3631627287523986</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -906,19 +906,19 @@
         <v>154183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>134606</v>
+        <v>133436</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>178074</v>
+        <v>177196</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2678928615774022</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2338766023737106</v>
+        <v>0.2318446222685085</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.309402432572801</v>
+        <v>0.3078776397641947</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>314</v>
@@ -927,19 +927,19 @@
         <v>335337</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>304176</v>
+        <v>306453</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>367386</v>
+        <v>369582</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2942042229383932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2668655760523412</v>
+        <v>0.2688630613645405</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3223221412668998</v>
+        <v>0.3242480555795211</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>84426</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67630</v>
+        <v>67809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104215</v>
+        <v>104936</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1496199286691614</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1198548254322067</v>
+        <v>0.1201718593854147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.184689301695764</v>
+        <v>0.1859685397391639</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -977,19 +977,19 @@
         <v>98731</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81510</v>
+        <v>81267</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118674</v>
+        <v>117159</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1715452817915572</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.141623571432169</v>
+        <v>0.1412003284014185</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2061952729033486</v>
+        <v>0.2035629707434846</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -998,19 +998,19 @@
         <v>183157</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>160895</v>
+        <v>160235</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>212836</v>
+        <v>209678</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1606910090720369</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1411591283726296</v>
+        <v>0.1405806324639832</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1867289511268046</v>
+        <v>0.1839583458569824</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>130907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>112121</v>
+        <v>111389</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>151266</v>
+        <v>152474</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2319926946186069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1987017964722693</v>
+        <v>0.1974044119150974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2680735236763691</v>
+        <v>0.2702153238880164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>172</v>
@@ -1048,19 +1048,19 @@
         <v>184593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>162520</v>
+        <v>161978</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>208667</v>
+        <v>207531</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3207300873901266</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2823785657867086</v>
+        <v>0.2814354593747989</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.362557737948268</v>
+        <v>0.3605840654618778</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>297</v>
@@ -1069,19 +1069,19 @@
         <v>315500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>283673</v>
+        <v>285884</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>346062</v>
+        <v>347286</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2768001284889214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2488770670606605</v>
+        <v>0.2508168072991762</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3036138177917196</v>
+        <v>0.3046871077416469</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>71622</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56462</v>
+        <v>57049</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89620</v>
+        <v>89637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08936501424198096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0704503053695518</v>
+        <v>0.07118262632732944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1118219537494016</v>
+        <v>0.1118431027429382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -1194,19 +1194,19 @@
         <v>55503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41923</v>
+        <v>42868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70607</v>
+        <v>70862</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06409059976588752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04840938168740707</v>
+        <v>0.04950140066282062</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08153207966953992</v>
+        <v>0.08182694123349403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -1215,19 +1215,19 @@
         <v>127124</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104701</v>
+        <v>106254</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>149816</v>
+        <v>150217</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07623858012372711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06279090711249487</v>
+        <v>0.06372255892066984</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08984723816589986</v>
+        <v>0.09008784793740192</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>181110</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>156676</v>
+        <v>155972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205291</v>
+        <v>206160</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2259775725097423</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1954905672089476</v>
+        <v>0.1946115078054406</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2561489834634039</v>
+        <v>0.2572335126780955</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -1265,19 +1265,19 @@
         <v>158879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136383</v>
+        <v>138200</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186015</v>
+        <v>187571</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1834617225035145</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1574851762753757</v>
+        <v>0.1595832620813406</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2147965280520464</v>
+        <v>0.2165937802213127</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>309</v>
@@ -1286,19 +1286,19 @@
         <v>339989</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>304705</v>
+        <v>308607</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>372095</v>
+        <v>376303</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2038966849538233</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1827367085945868</v>
+        <v>0.1850763641023386</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2231513119325796</v>
+        <v>0.2256748601620735</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>249283</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>223969</v>
+        <v>220080</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>276509</v>
+        <v>277375</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3110399519696448</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2794542981484509</v>
+        <v>0.2746021350577869</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3450101126524366</v>
+        <v>0.3460910852818217</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>259</v>
@@ -1336,19 +1336,19 @@
         <v>284167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>256658</v>
+        <v>256049</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>311909</v>
+        <v>311994</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3281361505073248</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2963706414619768</v>
+        <v>0.2956668314833856</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3601706103192275</v>
+        <v>0.3602690622493861</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>493</v>
@@ -1357,19 +1357,19 @@
         <v>533450</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>498030</v>
+        <v>495183</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>572671</v>
+        <v>580766</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3199189756158587</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2986765456311946</v>
+        <v>0.2969696182915733</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3434398894988852</v>
+        <v>0.3482949145344872</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>104311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84511</v>
+        <v>86041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125135</v>
+        <v>127985</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.130152414627986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1054477302233447</v>
+        <v>0.1073567289337627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1561350117693113</v>
+        <v>0.1596921097451254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -1407,19 +1407,19 @@
         <v>126609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105563</v>
+        <v>106705</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147331</v>
+        <v>149350</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1461989953209563</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1218970273807587</v>
+        <v>0.1232157588041907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1701278210649232</v>
+        <v>0.1724590622179185</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -1428,19 +1428,19 @@
         <v>230920</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>201433</v>
+        <v>201420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>260878</v>
+        <v>262154</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1384863123128861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1208027942176428</v>
+        <v>0.120794808399994</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1564527525602595</v>
+        <v>0.1572177690897721</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>195125</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172684</v>
+        <v>172196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>220835</v>
+        <v>223625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2434650466506458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2154637691222694</v>
+        <v>0.2148556371101075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.275543456489074</v>
+        <v>0.2790252027364086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -1478,19 +1478,19 @@
         <v>240847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>211030</v>
+        <v>214063</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>267921</v>
+        <v>269795</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2781125319023168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2436822080551608</v>
+        <v>0.2471852604073788</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3093762148397197</v>
+        <v>0.311540374244499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>395</v>
@@ -1499,19 +1499,19 @@
         <v>435972</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>398214</v>
+        <v>397779</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>473815</v>
+        <v>474479</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2614594469937048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2388152103855246</v>
+        <v>0.2385542645615857</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.284154792881966</v>
+        <v>0.2845525251653584</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>54310</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40997</v>
+        <v>40178</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70850</v>
+        <v>73327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09066851448056192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06844259845647889</v>
+        <v>0.06707650937205636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.118281769325965</v>
+        <v>0.1224178812310341</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1624,19 +1624,19 @@
         <v>44177</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31251</v>
+        <v>32070</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59005</v>
+        <v>59880</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06429637889968587</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04548352096850946</v>
+        <v>0.04667559650433554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08587817727828782</v>
+        <v>0.08715167824427503</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -1645,19 +1645,19 @@
         <v>98487</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79119</v>
+        <v>79747</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>118921</v>
+        <v>121309</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07657925350923064</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0615195635749541</v>
+        <v>0.06200790554178686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0924678301125524</v>
+        <v>0.09432477209685977</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>154276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133291</v>
+        <v>133246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176112</v>
+        <v>177937</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.257560135417664</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2225260241225518</v>
+        <v>0.2224498160298749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.294014648123939</v>
+        <v>0.2970609323691534</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>126</v>
@@ -1695,19 +1695,19 @@
         <v>139293</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118008</v>
+        <v>118342</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163254</v>
+        <v>164301</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2027316528575625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1717528542200347</v>
+        <v>0.1722387191605691</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2376041587083896</v>
+        <v>0.2391276479655028</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>266</v>
@@ -1716,19 +1716,19 @@
         <v>293570</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263190</v>
+        <v>263064</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>325563</v>
+        <v>327496</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2282681276816074</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2046455356801602</v>
+        <v>0.2045479691379854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2531447432340624</v>
+        <v>0.2546477367778712</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>210815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>186190</v>
+        <v>186232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>237405</v>
+        <v>238161</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3519489528473994</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.310838145003751</v>
+        <v>0.310909279261481</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3963409790135139</v>
+        <v>0.3976024676249726</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>185</v>
@@ -1766,19 +1766,19 @@
         <v>206990</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>179917</v>
+        <v>181827</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>231084</v>
+        <v>233727</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3012587645237895</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2618556907835097</v>
+        <v>0.2646365769791991</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3363268161888063</v>
+        <v>0.3401734624423953</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>377</v>
@@ -1787,19 +1787,19 @@
         <v>417805</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>383373</v>
+        <v>383973</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>453348</v>
+        <v>452830</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3248678205747758</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2980954169622943</v>
+        <v>0.2985617103193334</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3525047983752083</v>
+        <v>0.3521022705728827</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>71348</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55841</v>
+        <v>55372</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90866</v>
+        <v>90283</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1191138252018994</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09322414612311324</v>
+        <v>0.09244218435240947</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1516975628331724</v>
+        <v>0.150725087947905</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -1837,19 +1837,19 @@
         <v>97810</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78928</v>
+        <v>77966</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>116772</v>
+        <v>115762</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1423552939762615</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1148743374359667</v>
+        <v>0.1134737545607984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1699527768727185</v>
+        <v>0.168482857903845</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -1858,19 +1858,19 @@
         <v>169158</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>144879</v>
+        <v>147788</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>198535</v>
+        <v>196697</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1315305336597647</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1126522714531825</v>
+        <v>0.1149136653680672</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1543728250790286</v>
+        <v>0.1529437415522929</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>108243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90068</v>
+        <v>88733</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131136</v>
+        <v>128104</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1807085720524754</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1503658725067956</v>
+        <v>0.1481368951825528</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2189283836584563</v>
+        <v>0.2138657001140336</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>182</v>
@@ -1908,19 +1908,19 @@
         <v>198813</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>176317</v>
+        <v>173705</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>223441</v>
+        <v>225744</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2893579097427006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2566174558014998</v>
+        <v>0.252815206545654</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3252029308797568</v>
+        <v>0.3285537339622016</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>280</v>
@@ -1929,19 +1929,19 @@
         <v>307056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>272804</v>
+        <v>275652</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>337779</v>
+        <v>340025</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2387542645746216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.212121204198727</v>
+        <v>0.2143360661453806</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2626434353448205</v>
+        <v>0.2643894458313844</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>81305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64553</v>
+        <v>65574</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99876</v>
+        <v>99823</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1105324045223075</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08775923330819933</v>
+        <v>0.08914682171796753</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1357794646097989</v>
+        <v>0.1357080951184167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -2054,19 +2054,19 @@
         <v>65435</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51179</v>
+        <v>50263</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82367</v>
+        <v>83497</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0721330741278547</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05641771714532209</v>
+        <v>0.05540807587701747</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0907981991105779</v>
+        <v>0.09204387256532177</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>143</v>
@@ -2075,19 +2075,19 @@
         <v>146740</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123331</v>
+        <v>123578</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>172078</v>
+        <v>170809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0893274652167922</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07507705883837651</v>
+        <v>0.07522742555955263</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1047515495556893</v>
+        <v>0.1039790743961488</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>194467</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>170314</v>
+        <v>169848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>218461</v>
+        <v>217885</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2643742934355973</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2315386284265046</v>
+        <v>0.2309051893428709</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2969930026616153</v>
+        <v>0.2962101979998112</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>185</v>
@@ -2125,19 +2125,19 @@
         <v>190502</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>168484</v>
+        <v>167957</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>218578</v>
+        <v>218131</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2100015577340889</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1857295794673776</v>
+        <v>0.1851490666019998</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2409514648074919</v>
+        <v>0.2404585090956274</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>375</v>
@@ -2146,19 +2146,19 @@
         <v>384969</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>352209</v>
+        <v>346995</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>418646</v>
+        <v>419091</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2343484948453211</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2144057445447833</v>
+        <v>0.2112315569229673</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2548493511575451</v>
+        <v>0.2551199518593473</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>217713</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>190653</v>
+        <v>188312</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>241451</v>
+        <v>241650</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.295976142486827</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2591887056521349</v>
+        <v>0.2560064008430796</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3282475283268534</v>
+        <v>0.3285186305810413</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>261</v>
@@ -2196,19 +2196,19 @@
         <v>275496</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>248549</v>
+        <v>248712</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>305618</v>
+        <v>304864</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.303695816863091</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2739899252425897</v>
+        <v>0.2741702031721381</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3369005672502277</v>
+        <v>0.3360695846576234</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>465</v>
@@ -2217,19 +2217,19 @@
         <v>493209</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>456332</v>
+        <v>454755</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>531407</v>
+        <v>534087</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3002391133492217</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2777903692943501</v>
+        <v>0.2768304814495868</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3234921722091209</v>
+        <v>0.3251236068104756</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>78946</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61986</v>
+        <v>62147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>96269</v>
+        <v>96679</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1073253900761853</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08426823120291493</v>
+        <v>0.08448729293061005</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1308761344558583</v>
+        <v>0.1314326365500667</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>108</v>
@@ -2267,19 +2267,19 @@
         <v>113689</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>94837</v>
+        <v>94261</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>137357</v>
+        <v>134400</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1253261277218991</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1045448167487347</v>
+        <v>0.1039088733859989</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1514160917738403</v>
+        <v>0.1481572901375154</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>183</v>
@@ -2288,19 +2288,19 @@
         <v>192635</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>165243</v>
+        <v>166078</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>218544</v>
+        <v>219639</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1172657860495226</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1005911122183628</v>
+        <v>0.1010994896857982</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1330380746653865</v>
+        <v>0.1337043892013065</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>163144</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>143015</v>
+        <v>141148</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>188177</v>
+        <v>189324</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2217917694790828</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1944263173048855</v>
+        <v>0.1918877337116308</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2558235193474589</v>
+        <v>0.2573829915668856</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>247</v>
@@ -2338,19 +2338,19 @@
         <v>262023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>235323</v>
+        <v>235091</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>290568</v>
+        <v>294510</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2888434235530664</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2594101954871189</v>
+        <v>0.2591546924940051</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3203102304297479</v>
+        <v>0.3246555194990521</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>397</v>
@@ -2359,19 +2359,19 @@
         <v>425168</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>388690</v>
+        <v>391420</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>468039</v>
+        <v>466660</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2588191405391424</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2366134602914155</v>
+        <v>0.2382753913859676</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2849168975932864</v>
+        <v>0.2840775632871754</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>258353</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>226908</v>
+        <v>227509</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>290009</v>
+        <v>292007</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09567610612831899</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08403092599777906</v>
+        <v>0.08425355455955903</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1073992923499822</v>
+        <v>0.1081393321328449</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>183</v>
@@ -2484,19 +2484,19 @@
         <v>198332</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>172138</v>
+        <v>170571</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>229520</v>
+        <v>228557</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06533175442737356</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05670319367753041</v>
+        <v>0.05618710322438633</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07560500601284471</v>
+        <v>0.07528795879368839</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>427</v>
@@ -2505,19 +2505,19 @@
         <v>456686</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>417360</v>
+        <v>413248</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>501036</v>
+        <v>497269</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07961655384562562</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07276075985932948</v>
+        <v>0.07204389402177802</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08734836130105073</v>
+        <v>0.08669167585099034</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>646521</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>599558</v>
+        <v>599977</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>688528</v>
+        <v>692783</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2394264389331382</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2220347384480747</v>
+        <v>0.2221899978355684</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2549829061379985</v>
+        <v>0.2565588211812488</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>551</v>
@@ -2555,19 +2555,19 @@
         <v>593490</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>550084</v>
+        <v>549645</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>641281</v>
+        <v>639194</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.195498616751786</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1812004992108676</v>
+        <v>0.181055927316715</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2112413970628945</v>
+        <v>0.2105539261000377</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1163</v>
@@ -2576,19 +2576,19 @@
         <v>1240010</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1179571</v>
+        <v>1176098</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1305399</v>
+        <v>1304841</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2161779225720421</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2056412181307201</v>
+        <v>0.2050356781287039</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2275775596323813</v>
+        <v>0.2274801786190345</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>858965</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>815179</v>
+        <v>811913</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>913440</v>
+        <v>911233</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3181010430384508</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3018859822797468</v>
+        <v>0.3006764977868378</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3382749918822622</v>
+        <v>0.3374573989728824</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>848</v>
@@ -2626,19 +2626,19 @@
         <v>920837</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>867170</v>
+        <v>868836</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>970787</v>
+        <v>971781</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3033284974892932</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.285650273243548</v>
+        <v>0.2861992642115355</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3197822263593219</v>
+        <v>0.3201097467343524</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1649</v>
@@ -2647,19 +2647,19 @@
         <v>1779802</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1712151</v>
+        <v>1712327</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1859775</v>
+        <v>1856980</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3102827686546955</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2984888963347287</v>
+        <v>0.2985196330356575</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3242250616433201</v>
+        <v>0.3237376901124909</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>339031</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>302739</v>
+        <v>303373</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>377542</v>
+        <v>376484</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1255536119386675</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.112113718942977</v>
+        <v>0.1123482639964108</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1398152216705826</v>
+        <v>0.1394236815830181</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>408</v>
@@ -2697,19 +2697,19 @@
         <v>436839</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>396478</v>
+        <v>400326</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>478581</v>
+        <v>480825</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1438971552277296</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.130602053535868</v>
+        <v>0.1318695948864713</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1576469988524482</v>
+        <v>0.1583861570614488</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>712</v>
@@ -2718,19 +2718,19 @@
         <v>775870</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>723847</v>
+        <v>727905</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>834836</v>
+        <v>831830</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1352618138275667</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1261922228329551</v>
+        <v>0.126899797809892</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1455416902194409</v>
+        <v>0.1450175322075564</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>597419</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>551626</v>
+        <v>555634</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>646066</v>
+        <v>647205</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2212427999614245</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2042842017679749</v>
+        <v>0.205768438320811</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2392582379177674</v>
+        <v>0.2396800675849499</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>818</v>
@@ -2768,19 +2768,19 @@
         <v>886276</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>841742</v>
+        <v>834430</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>941445</v>
+        <v>940173</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2919439761038176</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2772743551024374</v>
+        <v>0.2748656761961971</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3101168666301845</v>
+        <v>0.3096979307514999</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1369</v>
@@ -2789,19 +2789,19 @@
         <v>1483695</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1413904</v>
+        <v>1420436</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1552841</v>
+        <v>1555764</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2586609411000701</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2464938408591704</v>
+        <v>0.2476325530916203</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2707153845813465</v>
+        <v>0.2712249953619138</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>66193</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50270</v>
+        <v>51227</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83126</v>
+        <v>82576</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1236586463399794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09391162669267714</v>
+        <v>0.09570043024480368</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1552932402801605</v>
+        <v>0.1542644448966657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -3154,19 +3154,19 @@
         <v>45068</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33683</v>
+        <v>33527</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59475</v>
+        <v>58257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07955562141938607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05945957419407828</v>
+        <v>0.05918268826612109</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1049874025030848</v>
+        <v>0.1028373118187806</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -3175,19 +3175,19 @@
         <v>111260</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93029</v>
+        <v>91762</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132144</v>
+        <v>132059</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1009825751444703</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08443488622586753</v>
+        <v>0.08328557401290938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1199371423041528</v>
+        <v>0.1198596983184426</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>128113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107974</v>
+        <v>109903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147717</v>
+        <v>150668</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.239334603339889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2017125417954269</v>
+        <v>0.2053168399586797</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2759592107052549</v>
+        <v>0.2814719546086634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -3225,19 +3225,19 @@
         <v>129362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110171</v>
+        <v>109707</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148135</v>
+        <v>149121</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2283556802794398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1944791007617254</v>
+        <v>0.1936595170409306</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2614951811164689</v>
+        <v>0.2632352794521035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>254</v>
@@ -3246,19 +3246,19 @@
         <v>257474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>232601</v>
+        <v>229037</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>288466</v>
+        <v>285273</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2336896653471548</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2111142154549344</v>
+        <v>0.2078789472572231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.261817943286292</v>
+        <v>0.2589199971527267</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>163704</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142368</v>
+        <v>143076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>186227</v>
+        <v>185769</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3058247974861932</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2659663222805129</v>
+        <v>0.2672879899213675</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3479007087520543</v>
+        <v>0.3470464400913753</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>163</v>
@@ -3296,19 +3296,19 @@
         <v>165287</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>145902</v>
+        <v>145541</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>187941</v>
+        <v>187339</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2917724712875086</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2575537170162165</v>
+        <v>0.2569160752827785</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.331763222434043</v>
+        <v>0.3307003447239276</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>325</v>
@@ -3317,19 +3317,19 @@
         <v>328991</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>300172</v>
+        <v>298046</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>359943</v>
+        <v>359234</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2985996343614956</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2724425982415857</v>
+        <v>0.2705133281694055</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3266929320412438</v>
+        <v>0.326049107512427</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>77892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63211</v>
+        <v>63503</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96216</v>
+        <v>95891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1455150691159904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.118087728085522</v>
+        <v>0.1186328854353458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1797470558243279</v>
+        <v>0.1791389255515318</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -3367,19 +3367,19 @@
         <v>88400</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72625</v>
+        <v>72660</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>106270</v>
+        <v>107700</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1560479621326558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1282013995749726</v>
+        <v>0.1282635683556368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1875931151636697</v>
+        <v>0.1901172078451814</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -3388,19 +3388,19 @@
         <v>166292</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143306</v>
+        <v>144979</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>192820</v>
+        <v>190587</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1509306756955985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1300680903057817</v>
+        <v>0.1315859400227176</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1750075384157548</v>
+        <v>0.1729815022216256</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>99385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80601</v>
+        <v>83026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116981</v>
+        <v>118998</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.185666883717948</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1505747085040841</v>
+        <v>0.1551060469428473</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2185386046076823</v>
+        <v>0.2223075148311501</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -3438,19 +3438,19 @@
         <v>138376</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>118639</v>
+        <v>120056</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>158459</v>
+        <v>159576</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2442682648810097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2094280981582296</v>
+        <v>0.2119283537775565</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2797190725346899</v>
+        <v>0.2816923629715106</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>229</v>
@@ -3459,19 +3459,19 @@
         <v>237761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>211438</v>
+        <v>212966</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>264274</v>
+        <v>266262</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2157974494512808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1919064390324275</v>
+        <v>0.1932932005524194</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2398610646427661</v>
+        <v>0.2416651717163585</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>108389</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89568</v>
+        <v>89311</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130340</v>
+        <v>128007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1342881064458078</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1109702761386709</v>
+        <v>0.1106517715554049</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1614839768820736</v>
+        <v>0.1585946652582818</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -3584,19 +3584,19 @@
         <v>88018</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71753</v>
+        <v>69550</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107394</v>
+        <v>105934</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09536753583237496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07774431218887758</v>
+        <v>0.07535705196331111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1163614855031595</v>
+        <v>0.1147794517360235</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -3605,19 +3605,19 @@
         <v>196407</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171137</v>
+        <v>171301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>224352</v>
+        <v>226071</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1135252901827949</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09891910625628655</v>
+        <v>0.0990142474080247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1296781281363409</v>
+        <v>0.1306718143808527</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>198380</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>173147</v>
+        <v>173077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225083</v>
+        <v>223967</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2457824149861597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2145202224984313</v>
+        <v>0.2144335775980247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2788663394134012</v>
+        <v>0.2774833482751179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>232</v>
@@ -3655,19 +3655,19 @@
         <v>248398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>221149</v>
+        <v>221608</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276377</v>
+        <v>277010</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2691392467963143</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2396150185043572</v>
+        <v>0.2401128615044256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2994547288672877</v>
+        <v>0.3001409425984826</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>415</v>
@@ -3676,19 +3676,19 @@
         <v>446777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>409320</v>
+        <v>410976</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>482020</v>
+        <v>484309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2582424997104304</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2365914993863107</v>
+        <v>0.237548973499519</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2786133400311498</v>
+        <v>0.2799361934557016</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>245809</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>219105</v>
+        <v>221052</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>272605</v>
+        <v>272854</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3045450105337551</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.271459470961938</v>
+        <v>0.2738720680405095</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3377432446176474</v>
+        <v>0.3380522186659983</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>256</v>
@@ -3726,19 +3726,19 @@
         <v>277827</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>248876</v>
+        <v>250418</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>305115</v>
+        <v>308167</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3010259693483989</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2696571551991284</v>
+        <v>0.2713285158137819</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3305920895508034</v>
+        <v>0.3338994726320176</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>489</v>
@@ -3747,19 +3747,19 @@
         <v>523636</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>481912</v>
+        <v>487014</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>561391</v>
+        <v>563578</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3026677203398567</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2785504685200044</v>
+        <v>0.2814997767717782</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3244904172600033</v>
+        <v>0.3257547545270205</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>115294</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93450</v>
+        <v>97085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>135510</v>
+        <v>137544</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1428432177493353</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1157792399994799</v>
+        <v>0.1202838232924539</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1678896698649104</v>
+        <v>0.1704100951452616</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -3797,19 +3797,19 @@
         <v>133872</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110597</v>
+        <v>112978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154842</v>
+        <v>158489</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1450505060731812</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1198314518539355</v>
+        <v>0.1224117097838775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1677719545723556</v>
+        <v>0.1717233582186175</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>230</v>
@@ -3818,19 +3818,19 @@
         <v>249166</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>221876</v>
+        <v>221200</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>282060</v>
+        <v>278392</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1440207318809418</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.128247089614145</v>
+        <v>0.1278564386038487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1630340670221469</v>
+        <v>0.1609139731211578</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>139264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>119560</v>
+        <v>118158</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162962</v>
+        <v>164704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1725412502849422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1481287507433823</v>
+        <v>0.146391167570083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2019011370932378</v>
+        <v>0.2040597391299451</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>162</v>
@@ -3868,19 +3868,19 @@
         <v>174819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>148879</v>
+        <v>149226</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199579</v>
+        <v>199323</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1894167419497306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1613106369659207</v>
+        <v>0.1616866341475039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2162439178941795</v>
+        <v>0.2159663113417931</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -3889,19 +3889,19 @@
         <v>314083</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>282948</v>
+        <v>283978</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>352409</v>
+        <v>347394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1815437578859761</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1635470389216768</v>
+        <v>0.1641425835047623</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2036965576237942</v>
+        <v>0.2007977270751127</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>53739</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41362</v>
+        <v>39984</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69811</v>
+        <v>68459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09226876796460322</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07101759743633282</v>
+        <v>0.06865150874655179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1198631925563224</v>
+        <v>0.1175416274749887</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -4014,19 +4014,19 @@
         <v>47673</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35299</v>
+        <v>35174</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62558</v>
+        <v>60979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07059211681089345</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05226881399230961</v>
+        <v>0.0520838708129687</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09263337668669099</v>
+        <v>0.09029530935430172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>97</v>
@@ -4035,19 +4035,19 @@
         <v>101413</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84072</v>
+        <v>84448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>122586</v>
+        <v>122217</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08062982676815293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06684285531414651</v>
+        <v>0.06714194838532794</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09746393073415523</v>
+        <v>0.09717106765110745</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>193441</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>170943</v>
+        <v>174303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>219621</v>
+        <v>220622</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.33213226481655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2935036000533212</v>
+        <v>0.2992724662480004</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3770812845885004</v>
+        <v>0.3788006033138613</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -4085,19 +4085,19 @@
         <v>185966</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161360</v>
+        <v>162465</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206847</v>
+        <v>208986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2753691069070112</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.238934436840441</v>
+        <v>0.2405707768541901</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3062899323251683</v>
+        <v>0.3094570644606775</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>357</v>
@@ -4106,19 +4106,19 @@
         <v>379407</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>347665</v>
+        <v>348246</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>413351</v>
+        <v>413621</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.301654168714474</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2764170021281836</v>
+        <v>0.276879324726304</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3286416853771861</v>
+        <v>0.3288564135497963</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>182614</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>160218</v>
+        <v>157959</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>205043</v>
+        <v>206376</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3135413117621202</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2750890367288917</v>
+        <v>0.2712098047415022</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3520519178173587</v>
+        <v>0.3543412551480806</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>217</v>
@@ -4156,19 +4156,19 @@
         <v>231731</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>208854</v>
+        <v>207288</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>257929</v>
+        <v>256391</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3431359952741087</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3092615720790046</v>
+        <v>0.3069423717241067</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3819288277633702</v>
+        <v>0.3796522908300236</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>385</v>
@@ -4177,19 +4177,19 @@
         <v>414344</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>381057</v>
+        <v>378344</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>451792</v>
+        <v>445231</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3294317174655234</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.302966273938659</v>
+        <v>0.3008087199180081</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3592051583069254</v>
+        <v>0.353988457746493</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>61447</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47977</v>
+        <v>47233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77531</v>
+        <v>78000</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1055016701368474</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08237418042727111</v>
+        <v>0.08109773633821593</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1331174550030342</v>
+        <v>0.1339236921349672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -4227,19 +4227,19 @@
         <v>76181</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61456</v>
+        <v>61097</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96805</v>
+        <v>95454</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1128049919999665</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09100121932514814</v>
+        <v>0.09046935014067477</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1433448162310678</v>
+        <v>0.1413436435259304</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -4248,19 +4248,19 @@
         <v>137627</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115053</v>
+        <v>116839</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162622</v>
+        <v>162143</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1094230753899391</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09147496872412179</v>
+        <v>0.0928951991217165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1292955456163383</v>
+        <v>0.1289147831863766</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>91182</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73431</v>
+        <v>75959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>110811</v>
+        <v>110481</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1565559853198791</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1260788400311618</v>
+        <v>0.1304181930194862</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.19025813306397</v>
+        <v>0.1896917710218454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -4298,19 +4298,19 @@
         <v>133782</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>114350</v>
+        <v>113101</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>154711</v>
+        <v>157091</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1980977890080202</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1693236625111307</v>
+        <v>0.1674752283697241</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2290881738358461</v>
+        <v>0.232613259536417</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>202</v>
@@ -4319,19 +4319,19 @@
         <v>224964</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>196184</v>
+        <v>196783</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>253468</v>
+        <v>254710</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1788612116619107</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.155979446842278</v>
+        <v>0.1564559531645369</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2015241388626717</v>
+        <v>0.2025116279027106</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>79704</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64139</v>
+        <v>64138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>97729</v>
+        <v>97885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1096134362579229</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08820735636159094</v>
+        <v>0.08820630807686798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1344012135793615</v>
+        <v>0.1346169174024717</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -4444,19 +4444,19 @@
         <v>53446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39935</v>
+        <v>40581</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69434</v>
+        <v>68970</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06308611131230911</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04713860789724648</v>
+        <v>0.04790074998319654</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0819583745020793</v>
+        <v>0.08141045466290285</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>131</v>
@@ -4465,19 +4465,19 @@
         <v>133150</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>112224</v>
+        <v>112238</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157419</v>
+        <v>157315</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08457587753318613</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07128400844658501</v>
+        <v>0.07129269144980038</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09999151410162406</v>
+        <v>0.0999251699660692</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>204307</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>181288</v>
+        <v>179759</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228014</v>
+        <v>228458</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2809723727283583</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2493159552652198</v>
+        <v>0.2472138465549891</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3135760854302613</v>
+        <v>0.3141870780012623</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>217</v>
@@ -4515,19 +4515,19 @@
         <v>230106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>205540</v>
+        <v>203696</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>258617</v>
+        <v>256945</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2716126531823325</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2426154297389618</v>
+        <v>0.2404378200449356</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3052663815653316</v>
+        <v>0.3032923893531765</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>420</v>
@@ -4536,19 +4536,19 @@
         <v>434413</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>398282</v>
+        <v>401179</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>472819</v>
+        <v>471161</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2759356652010157</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2529853666924045</v>
+        <v>0.254825585881362</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3003310123922922</v>
+        <v>0.2992778700023144</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>203318</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>180282</v>
+        <v>181556</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>228070</v>
+        <v>233107</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2796132220367005</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2479329467318724</v>
+        <v>0.2496844361453443</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3136537211532009</v>
+        <v>0.3205808074774673</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>233</v>
@@ -4586,19 +4586,19 @@
         <v>257419</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>230459</v>
+        <v>230637</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>285295</v>
+        <v>286294</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3038520266216542</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2720286264725325</v>
+        <v>0.2722394575054881</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3367562512971213</v>
+        <v>0.3379355306997172</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>437</v>
@@ -4607,19 +4607,19 @@
         <v>460737</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>422460</v>
+        <v>421800</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>496578</v>
+        <v>495314</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2926567506281805</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2683435266471485</v>
+        <v>0.2679241358892308</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3154223680412049</v>
+        <v>0.3146195714737969</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>105684</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87028</v>
+        <v>87784</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125687</v>
+        <v>125228</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1453424774439243</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1196854132834254</v>
+        <v>0.1207252212107834</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1728513539529828</v>
+        <v>0.17221985518317</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>129</v>
@@ -4657,19 +4657,19 @@
         <v>144135</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>119977</v>
+        <v>121703</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>166622</v>
+        <v>169240</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.17013362087357</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1416176979526559</v>
+        <v>0.1436558450674749</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1966766357344603</v>
+        <v>0.1997672356587301</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>234</v>
@@ -4678,19 +4678,19 @@
         <v>249819</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>220572</v>
+        <v>221636</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>277899</v>
+        <v>281266</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.15868323387466</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1401055294245253</v>
+        <v>0.1407815636070868</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1765190267211725</v>
+        <v>0.178658242673534</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>134127</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>115782</v>
+        <v>113303</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>157203</v>
+        <v>158432</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.184458491533094</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.159228482612263</v>
+        <v>0.1558196196071542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2161929266111697</v>
+        <v>0.2178836060691808</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>141</v>
@@ -4728,19 +4728,19 @@
         <v>162080</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>138364</v>
+        <v>140043</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>188672</v>
+        <v>187144</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1913155880101342</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1633219630439407</v>
+        <v>0.1653035798828197</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2227042207718848</v>
+        <v>0.2209012519465466</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>276</v>
@@ -4749,19 +4749,19 @@
         <v>296207</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>264752</v>
+        <v>266157</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>328832</v>
+        <v>330141</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1881484727629576</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1681682207741624</v>
+        <v>0.169060538648258</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2088713408004906</v>
+        <v>0.2097029342564774</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>308025</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>277311</v>
+        <v>276034</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>345703</v>
+        <v>342557</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1161489447654599</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.104567337657587</v>
+        <v>0.1040858016842705</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1303561630957834</v>
+        <v>0.1291699563345443</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>227</v>
@@ -4874,19 +4874,19 @@
         <v>234204</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>205650</v>
+        <v>203264</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>266006</v>
+        <v>263073</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07775853125955176</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06827800859801128</v>
+        <v>0.06748582767682096</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08831717323245546</v>
+        <v>0.08734323945374063</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>517</v>
@@ -4895,19 +4895,19 @@
         <v>542230</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>502028</v>
+        <v>501597</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>589399</v>
+        <v>591127</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0957338308588863</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08863598705960209</v>
+        <v>0.08855992357219847</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1040617843488185</v>
+        <v>0.1043669463320527</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>724240</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>674988</v>
+        <v>676211</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>774139</v>
+        <v>771507</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2730935616180221</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2545216588812297</v>
+        <v>0.2549830332087344</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2919091720559633</v>
+        <v>0.2909168790132415</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>755</v>
@@ -4945,19 +4945,19 @@
         <v>793832</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>746977</v>
+        <v>749234</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>842652</v>
+        <v>844775</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2635611550555855</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.248004858018386</v>
+        <v>0.2487543593156958</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2797698976415791</v>
+        <v>0.2804750233821817</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1446</v>
@@ -4966,19 +4966,19 @@
         <v>1518072</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1446985</v>
+        <v>1455246</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1584424</v>
+        <v>1586783</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2680244532650745</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2554736102570711</v>
+        <v>0.2569321307105969</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2797392969121744</v>
+        <v>0.280155858901503</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>795445</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>743425</v>
+        <v>749354</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>843915</v>
+        <v>848517</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2999430943395046</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2803276061312969</v>
+        <v>0.2825632530605951</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3182198944954533</v>
+        <v>0.3199552493363236</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>869</v>
@@ -5016,19 +5016,19 @@
         <v>932264</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>881459</v>
+        <v>884894</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>988222</v>
+        <v>986661</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.309522282288516</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2926543907779774</v>
+        <v>0.2937948570803928</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.328100967408153</v>
+        <v>0.3275827719251496</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1636</v>
@@ -5037,19 +5037,19 @@
         <v>1727709</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1654173</v>
+        <v>1653640</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1800348</v>
+        <v>1803916</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3050370799273767</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2920539023945424</v>
+        <v>0.2919597817732959</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3178619910591459</v>
+        <v>0.3184919162951583</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>360317</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>324387</v>
+        <v>327366</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>398625</v>
+        <v>399695</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1358669140561655</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1223184074484189</v>
+        <v>0.1234418561389714</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1503117513381944</v>
+        <v>0.1507154230636342</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>407</v>
@@ -5087,19 +5087,19 @@
         <v>442588</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>400909</v>
+        <v>402895</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>481259</v>
+        <v>482182</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1469441689845955</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.13310621626757</v>
+        <v>0.1337657080314765</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1597835974398858</v>
+        <v>0.1600899740662202</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>751</v>
@@ -5108,19 +5108,19 @@
         <v>802905</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>751681</v>
+        <v>748244</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>856062</v>
+        <v>857501</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.141757536231966</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1327136972033613</v>
+        <v>0.1321069054152587</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1511427275474031</v>
+        <v>0.1513967668622528</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>463958</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>426538</v>
+        <v>427576</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>506681</v>
+        <v>504737</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1749474852208479</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1608373561738903</v>
+        <v>0.1612286575627547</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1910571025602993</v>
+        <v>0.1903241397496889</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>556</v>
@@ -5158,19 +5158,19 @@
         <v>609057</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>567794</v>
+        <v>565427</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>653874</v>
+        <v>657800</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2022138624117512</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1885142017824617</v>
+        <v>0.1877281723620775</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2170936323691246</v>
+        <v>0.2183970550791541</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1000</v>
@@ -5179,19 +5179,19 @@
         <v>1073015</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1014553</v>
+        <v>1014182</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1133196</v>
+        <v>1134970</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1894470997166966</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1791252412143941</v>
+        <v>0.179059670290885</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2000723219254933</v>
+        <v>0.2003856053955761</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>55119</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41179</v>
+        <v>41326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72886</v>
+        <v>72609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09289783781806878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06940391297705147</v>
+        <v>0.0696501074645527</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1228426192088802</v>
+        <v>0.1223745000074817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -5544,19 +5544,19 @@
         <v>64429</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>51269</v>
+        <v>51855</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80170</v>
+        <v>78559</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09704149359421299</v>
+        <v>0.097041493594213</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07721991709406358</v>
+        <v>0.07810247629706657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1207505119912137</v>
+        <v>0.1183241090038074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>138</v>
@@ -5565,19 +5565,19 @@
         <v>119548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101080</v>
+        <v>102285</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142444</v>
+        <v>140826</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09508600508271044</v>
+        <v>0.09508600508271042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08039672865831576</v>
+        <v>0.08135537371403978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1132968813503892</v>
+        <v>0.1120103499929669</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>137762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117838</v>
+        <v>115325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161322</v>
+        <v>161144</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2321832290050471</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1986044902769043</v>
+        <v>0.1943686416417253</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2718917328316343</v>
+        <v>0.2715919400324924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>216</v>
@@ -5615,19 +5615,19 @@
         <v>131075</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113610</v>
+        <v>115178</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148670</v>
+        <v>148658</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1974230805874685</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1711179735698612</v>
+        <v>0.1734797014700099</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.223924049454058</v>
+        <v>0.2239059738810883</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>352</v>
@@ -5636,19 +5636,19 @@
         <v>268837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>242611</v>
+        <v>239020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>297776</v>
+        <v>296043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2138272112780614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1929674337990624</v>
+        <v>0.1901112574005772</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2368444485725608</v>
+        <v>0.2354661535736463</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>162118</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>141518</v>
+        <v>139776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>182520</v>
+        <v>183888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2732344739292684</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2385145941790885</v>
+        <v>0.2355786886417158</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.307619514991627</v>
+        <v>0.309925286897913</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>310</v>
@@ -5686,19 +5686,19 @@
         <v>178370</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>162510</v>
+        <v>159852</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>197219</v>
+        <v>198897</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2686574589697259</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2447694168623402</v>
+        <v>0.2407662789930376</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2970481928031515</v>
+        <v>0.2995756570244607</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>502</v>
@@ -5707,19 +5707,19 @@
         <v>340489</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>308511</v>
+        <v>313140</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>370094</v>
+        <v>371175</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2708174598611826</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2453832441080121</v>
+        <v>0.2490650458453974</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2943648991802019</v>
+        <v>0.2952246420922717</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>116007</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98156</v>
+        <v>98697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>135279</v>
+        <v>138046</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1955183076757026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1654319705314896</v>
+        <v>0.16634325313721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2279988983223362</v>
+        <v>0.2326635248175419</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>241</v>
@@ -5757,19 +5757,19 @@
         <v>125936</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109765</v>
+        <v>110793</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>142315</v>
+        <v>142253</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1896824773073773</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1653264270012305</v>
+        <v>0.1668744135200831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2143526924256681</v>
+        <v>0.2142592306086782</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>378</v>
@@ -5778,19 +5778,19 @@
         <v>241943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>217782</v>
+        <v>216061</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>266660</v>
+        <v>265666</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.192436542764754</v>
+        <v>0.1924365427647539</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1732192417962502</v>
+        <v>0.1718503148926054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2120956992909069</v>
+        <v>0.2113054447668926</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>122325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>105062</v>
+        <v>104072</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>142545</v>
+        <v>143015</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.206166151571913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1770710620936521</v>
+        <v>0.1754022920649007</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2402447646031035</v>
+        <v>0.2410369832866761</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>297</v>
@@ -5828,19 +5828,19 @@
         <v>164121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146802</v>
+        <v>146440</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>183701</v>
+        <v>183951</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2471954895412152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2211104098590252</v>
+        <v>0.2205652055549127</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2766877676820581</v>
+        <v>0.2770634115404545</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>444</v>
@@ -5849,19 +5849,19 @@
         <v>286445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>259112</v>
+        <v>260922</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>311287</v>
+        <v>313357</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2278327810132917</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2060924500665615</v>
+        <v>0.2075317689223709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2475910294185145</v>
+        <v>0.249237412042084</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>77211</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60540</v>
+        <v>60671</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97722</v>
+        <v>97737</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09792315242747052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.076779800757144</v>
+        <v>0.07694540685748305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1239357145567716</v>
+        <v>0.1239545515712421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -5974,19 +5974,19 @@
         <v>58255</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46345</v>
+        <v>46343</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74220</v>
+        <v>73367</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06469953970425889</v>
+        <v>0.0646995397042589</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05147194623665154</v>
+        <v>0.051469197804098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08243008089474169</v>
+        <v>0.08148293511631327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>143</v>
@@ -5995,19 +5995,19 @@
         <v>135467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114032</v>
+        <v>113517</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158990</v>
+        <v>159515</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0802106138395809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.067519094309461</v>
+        <v>0.06721386284478582</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0941390943682327</v>
+        <v>0.09445001177688697</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>179967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>154898</v>
+        <v>155651</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>204543</v>
+        <v>205681</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2282430295859109</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1964496668741621</v>
+        <v>0.1974041831968906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2594116104693465</v>
+        <v>0.2608549610185223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -6045,19 +6045,19 @@
         <v>218447</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>196366</v>
+        <v>195473</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242448</v>
+        <v>241134</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2426120678065881</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2180881898687387</v>
+        <v>0.2170964965291474</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2692675215041843</v>
+        <v>0.2678077748010479</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>470</v>
@@ -6066,19 +6066,19 @@
         <v>398415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>364396</v>
+        <v>361624</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>433526</v>
+        <v>430545</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2359036096099729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2157610596115436</v>
+        <v>0.2141195162816185</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2566935450476847</v>
+        <v>0.2549281817195097</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>249170</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>218316</v>
+        <v>222416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>278022</v>
+        <v>278130</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3160094589223052</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.276878451033394</v>
+        <v>0.2820786862335965</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3526008730901906</v>
+        <v>0.3527383950104115</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>404</v>
@@ -6116,19 +6116,19 @@
         <v>257804</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>234923</v>
+        <v>237238</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>280348</v>
+        <v>283335</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2863219268299476</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2609105175091627</v>
+        <v>0.2634807836834102</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.311359791429173</v>
+        <v>0.3146778590903599</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>644</v>
@@ -6137,19 +6137,19 @@
         <v>506974</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>471555</v>
+        <v>471054</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>545973</v>
+        <v>546246</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3001821146131261</v>
+        <v>0.300182114613126</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2792104576007337</v>
+        <v>0.2789140571185095</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.323273864407015</v>
+        <v>0.3234355580518165</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>127106</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106644</v>
+        <v>105769</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148208</v>
+        <v>147653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1612017756399241</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1352505517100497</v>
+        <v>0.1341411138397764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1879643962701414</v>
+        <v>0.1872611789305846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>233</v>
@@ -6187,19 +6187,19 @@
         <v>150159</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131923</v>
+        <v>131572</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170718</v>
+        <v>170576</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1667690813980323</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1465159927929396</v>
+        <v>0.1461260260157272</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1896024254638903</v>
+        <v>0.1894451909998237</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>375</v>
@@ -6208,19 +6208,19 @@
         <v>277264</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248914</v>
+        <v>251550</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>307849</v>
+        <v>307573</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1641698790455534</v>
+        <v>0.1641698790455533</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1473836475587222</v>
+        <v>0.1489444058166608</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1822793073842268</v>
+        <v>0.1821158931397092</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>155035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133500</v>
+        <v>131959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178914</v>
+        <v>179295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1966225834243892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1693111333922621</v>
+        <v>0.1673570125848848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2269077822139857</v>
+        <v>0.227390540025469</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>318</v>
@@ -6258,19 +6258,19 @@
         <v>215733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>194680</v>
+        <v>194985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>240459</v>
+        <v>240404</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.239597384261173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2162151033502139</v>
+        <v>0.2165542660327482</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2670583516739481</v>
+        <v>0.2669979470861684</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>485</v>
@@ -6279,19 +6279,19 @@
         <v>370768</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>336368</v>
+        <v>339226</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>403051</v>
+        <v>404228</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2195337828917667</v>
+        <v>0.2195337828917668</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1991654269253746</v>
+        <v>0.2008575148633668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2386488094044436</v>
+        <v>0.2393457192437427</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>59234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42956</v>
+        <v>42141</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78221</v>
+        <v>79413</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09420388205791566</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06831566322560946</v>
+        <v>0.0670198523925277</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1243998350535225</v>
+        <v>0.1262958278403124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -6404,19 +6404,19 @@
         <v>49225</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38398</v>
+        <v>38636</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62268</v>
+        <v>61295</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07075745246864942</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05519470559226185</v>
+        <v>0.05553595793021166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08950586127091149</v>
+        <v>0.08810712587675185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -6425,19 +6425,19 @@
         <v>108459</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88878</v>
+        <v>88707</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130898</v>
+        <v>133206</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08188846977081897</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06710397566990929</v>
+        <v>0.06697492537184045</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09882994416817857</v>
+        <v>0.1005728715417173</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>212106</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184053</v>
+        <v>187889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>238336</v>
+        <v>240191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3373262468795872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2927127098781753</v>
+        <v>0.298812640898496</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3790422501221781</v>
+        <v>0.3819927822254031</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>262</v>
@@ -6475,19 +6475,19 @@
         <v>209820</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187796</v>
+        <v>186881</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>232490</v>
+        <v>232662</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3015991285547623</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2699417237163716</v>
+        <v>0.2686260681033114</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3341850960075182</v>
+        <v>0.3344332032912615</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>442</v>
@@ -6496,19 +6496,19 @@
         <v>421925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>387007</v>
+        <v>387773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>459611</v>
+        <v>456863</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3185603110971286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2921960280373166</v>
+        <v>0.292774278672958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3470130879291456</v>
+        <v>0.3449386017817178</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>173094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>150219</v>
+        <v>150911</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198468</v>
+        <v>199362</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2752835489456337</v>
+        <v>0.2752835489456336</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2389041647557551</v>
+        <v>0.2400039912772952</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3156371748872518</v>
+        <v>0.3170591270655842</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>282</v>
@@ -6546,19 +6546,19 @@
         <v>208322</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>187296</v>
+        <v>186935</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>230251</v>
+        <v>229922</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2994460607497886</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2692229353611374</v>
+        <v>0.2687046091415268</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3309670849239024</v>
+        <v>0.3304946947026255</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>441</v>
@@ -6567,19 +6567,19 @@
         <v>381416</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>349868</v>
+        <v>347394</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>418071</v>
+        <v>415319</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2879750887652502</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2641560096320009</v>
+        <v>0.2622879181551058</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3156504764481258</v>
+        <v>0.3135721688662507</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>88695</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71801</v>
+        <v>71060</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110007</v>
+        <v>108981</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1410578824185328</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1141897660868848</v>
+        <v>0.1130119862051279</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1749513266283459</v>
+        <v>0.173320576657371</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>137</v>
@@ -6617,19 +6617,19 @@
         <v>93886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78790</v>
+        <v>80673</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109516</v>
+        <v>111576</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1349538382266885</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1132539625052384</v>
+        <v>0.1159605644705477</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1574208708254549</v>
+        <v>0.1603810992299708</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>225</v>
@@ -6638,19 +6638,19 @@
         <v>182581</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>160475</v>
+        <v>161864</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>205213</v>
+        <v>209606</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1378516876094248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1211609996687117</v>
+        <v>0.1222095720675678</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1549388246922276</v>
+        <v>0.1582559081354264</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>95656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77428</v>
+        <v>76731</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>114965</v>
+        <v>113893</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1521284396983307</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1231391991759499</v>
+        <v>0.1220303178139071</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1828366784084588</v>
+        <v>0.1811323821093391</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>189</v>
@@ -6688,19 +6688,19 @@
         <v>134438</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116425</v>
+        <v>117180</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>152722</v>
+        <v>154250</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1932435200001112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1673510650841675</v>
+        <v>0.1684363008622667</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2195251444718755</v>
+        <v>0.2217223305822412</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>286</v>
@@ -6709,19 +6709,19 @@
         <v>230094</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>206068</v>
+        <v>205571</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>257528</v>
+        <v>259206</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1737244427573773</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1555842290436614</v>
+        <v>0.1552094192614191</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.194437737460338</v>
+        <v>0.1957044299363139</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>50669</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37069</v>
+        <v>37045</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>66359</v>
+        <v>66556</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06496474231629933</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04752856730064579</v>
+        <v>0.04749717005670723</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08508169779673552</v>
+        <v>0.08533447921712978</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -6834,19 +6834,19 @@
         <v>54734</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43355</v>
+        <v>42555</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70373</v>
+        <v>69402</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05718178846529428</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04529351380463369</v>
+        <v>0.04445769790924508</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07352062370622248</v>
+        <v>0.07250617738051465</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -6855,19 +6855,19 @@
         <v>105403</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85647</v>
+        <v>87791</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>125799</v>
+        <v>126909</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06067619076213782</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04930374565207013</v>
+        <v>0.05053800538680406</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07241753413401819</v>
+        <v>0.07305677343960773</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>209200</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>182941</v>
+        <v>185372</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>236353</v>
+        <v>238164</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2682251504026383</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2345579656056166</v>
+        <v>0.2376741277354252</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.303039285175968</v>
+        <v>0.3053611184395428</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>300</v>
@@ -6905,19 +6905,19 @@
         <v>210346</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>188832</v>
+        <v>186757</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>232593</v>
+        <v>233870</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.219752591412847</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1972768972609528</v>
+        <v>0.195108599159353</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2429951011167705</v>
+        <v>0.2443285365637834</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>502</v>
@@ -6926,19 +6926,19 @@
         <v>419545</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>384530</v>
+        <v>386112</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>457089</v>
+        <v>457677</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2415158736717978</v>
+        <v>0.2415158736717977</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2213588531519067</v>
+        <v>0.2222697420159892</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2631284839135481</v>
+        <v>0.2634665176094712</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>240708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>215587</v>
+        <v>215745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>266830</v>
+        <v>266325</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3086238195790404</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2764140069887162</v>
+        <v>0.2766171942058218</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3421150247051145</v>
+        <v>0.3414684763134131</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>458</v>
@@ -6976,19 +6976,19 @@
         <v>312411</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>289214</v>
+        <v>290688</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>337997</v>
+        <v>339179</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3263823868316447</v>
+        <v>0.3263823868316448</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3021485591501655</v>
+        <v>0.3036877784841736</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3531125852456846</v>
+        <v>0.3543474118025151</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>731</v>
@@ -6997,19 +6997,19 @@
         <v>553119</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>516969</v>
+        <v>515859</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>589843</v>
+        <v>586969</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3184091186632697</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2975986338096326</v>
+        <v>0.296960039352184</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3395495210117118</v>
+        <v>0.3378951016873115</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>143375</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>122376</v>
+        <v>121158</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>167086</v>
+        <v>163896</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.183827788144465</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.156904304453823</v>
+        <v>0.1553426708876303</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2142283941762056</v>
+        <v>0.2101388895450128</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -7047,19 +7047,19 @@
         <v>164498</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>147024</v>
+        <v>146067</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>183649</v>
+        <v>185236</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1718550689488144</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1535995354800848</v>
+        <v>0.1525995904857852</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1918625071267439</v>
+        <v>0.1935198612141608</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>422</v>
@@ -7068,19 +7068,19 @@
         <v>307873</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>281190</v>
+        <v>282951</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>340020</v>
+        <v>337409</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1772305983760308</v>
+        <v>0.1772305983760307</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1618702127420107</v>
+        <v>0.1628836397188857</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1957363037639771</v>
+        <v>0.1942332855685927</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>135989</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>118769</v>
+        <v>116229</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>158771</v>
+        <v>155467</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1743584995575569</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1522795637108876</v>
+        <v>0.1490226819552599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2035685647446333</v>
+        <v>0.1993314404505389</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>323</v>
@@ -7118,19 +7118,19 @@
         <v>215204</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>194194</v>
+        <v>194264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>237942</v>
+        <v>239149</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2248281643413995</v>
+        <v>0.2248281643413996</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2028788529521783</v>
+        <v>0.2029519416346262</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2485831148689253</v>
+        <v>0.2498443042546395</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>485</v>
@@ -7139,19 +7139,19 @@
         <v>351193</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>317849</v>
+        <v>321480</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>379794</v>
+        <v>383181</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2021682185267641</v>
+        <v>0.202168218526764</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1829731259223366</v>
+        <v>0.1850635963616959</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2186327051592266</v>
+        <v>0.2205822400552632</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>242233</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>210135</v>
+        <v>213332</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>276349</v>
+        <v>277987</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08680493196751203</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07530229303205412</v>
+        <v>0.07644809361953375</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09903056569890106</v>
+        <v>0.09961748892435555</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>295</v>
@@ -7264,19 +7264,19 @@
         <v>226643</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>202473</v>
+        <v>199483</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>253064</v>
+        <v>254931</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07044715712168324</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06293440639632399</v>
+        <v>0.06200505282731188</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07865934258558627</v>
+        <v>0.0792396861614602</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>505</v>
@@ -7285,19 +7285,19 @@
         <v>468877</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>429371</v>
+        <v>429138</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>509553</v>
+        <v>510750</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07804518694259177</v>
+        <v>0.07804518694259176</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07146935936263882</v>
+        <v>0.07143063843454638</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08481587569776988</v>
+        <v>0.08501502158066795</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>739034</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>684903</v>
+        <v>690529</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>791441</v>
+        <v>791546</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2648349373831534</v>
+        <v>0.2648349373831535</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2454370709840228</v>
+        <v>0.2474529780756779</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2836149403981592</v>
+        <v>0.2836526021019967</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1081</v>
@@ -7335,19 +7335,19 @@
         <v>769688</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>728633</v>
+        <v>728613</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>810795</v>
+        <v>812865</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2392406640400292</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.226479787329441</v>
+        <v>0.2264733528755694</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2520177607849556</v>
+        <v>0.2526614167352675</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1766</v>
@@ -7356,19 +7356,19 @@
         <v>1508722</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1442065</v>
+        <v>1441898</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1576277</v>
+        <v>1575411</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2511289589908018</v>
+        <v>0.2511289589908019</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.240033722409706</v>
+        <v>0.2400059235815792</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.262373621221348</v>
+        <v>0.262229483569026</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>825091</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>774193</v>
+        <v>777801</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>875072</v>
+        <v>880592</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2956736768813656</v>
+        <v>0.2956736768813655</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2774340673756789</v>
+        <v>0.2787271359614188</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3135846432191802</v>
+        <v>0.3155625245876201</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1454</v>
@@ -7406,19 +7406,19 @@
         <v>956906</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>911513</v>
+        <v>913626</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1001543</v>
+        <v>1002023</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2974333923615814</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2833239735860295</v>
+        <v>0.2839805845396951</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3113076594713462</v>
+        <v>0.3114569503633293</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2318</v>
@@ -7427,19 +7427,19 @@
         <v>1781997</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1719507</v>
+        <v>1712637</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1849247</v>
+        <v>1853248</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2966160213669926</v>
+        <v>0.2966160213669927</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2862145027610347</v>
+        <v>0.2850709104680491</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.30780980005964</v>
+        <v>0.3084757326098616</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>475183</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>438172</v>
+        <v>434663</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>519355</v>
+        <v>516171</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1702830987873645</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1570200840084215</v>
+        <v>0.1557625908778777</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1861123789738623</v>
+        <v>0.1849713449569849</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>866</v>
@@ -7477,19 +7477,19 @@
         <v>534479</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>500201</v>
+        <v>501019</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>571720</v>
+        <v>566704</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1661311388107045</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1554764554712248</v>
+        <v>0.1557308245089599</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1777066995767662</v>
+        <v>0.1761474159303342</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1400</v>
@@ -7498,19 +7498,19 @@
         <v>1009662</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>958405</v>
+        <v>957472</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1070634</v>
+        <v>1065860</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1680596844726425</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1595279261019007</v>
+        <v>0.1593726102379326</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1782084945429008</v>
+        <v>0.1774138951679605</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>509005</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>471519</v>
+        <v>469295</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>548033</v>
+        <v>548166</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1824033549806044</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1689699973658788</v>
+        <v>0.1681733179957955</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1963892086505813</v>
+        <v>0.1964367358321203</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1127</v>
@@ -7548,19 +7548,19 @@
         <v>729495</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>686993</v>
+        <v>688554</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>769805</v>
+        <v>773033</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2267476476660017</v>
+        <v>0.2267476476660018</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2135367793125043</v>
+        <v>0.2140219504076257</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2392771298878252</v>
+        <v>0.2402804959921553</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1700</v>
@@ -7569,19 +7569,19 @@
         <v>1238500</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1180099</v>
+        <v>1180462</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1290827</v>
+        <v>1297626</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2061501482269714</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.196429191240225</v>
+        <v>0.1964896666388338</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2148599962342044</v>
+        <v>0.2159917198221621</v>
       </c>
     </row>
     <row r="33">
